--- a/biology/Zoologie/Cheirodontops_geayi/Cheirodontops_geayi.xlsx
+++ b/biology/Zoologie/Cheirodontops_geayi/Cheirodontops_geayi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cheirodontops geayi
 Cheirodontops geayi, unique représentant du genre Cheirodontops, est une espèce de poissons d'eau douce téléostéens de la famille des Characidae (ordre des Characiformes).
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cheirodontops geayi se rencontre en Amérique du Sud dans le bassin de l'Orénoque[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cheirodontops geayi se rencontre en Amérique du Sud dans le bassin de l'Orénoque.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cheirodontops geayi peut mesurer jusqu'à 40 mm, queue non comprise[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cheirodontops geayi peut mesurer jusqu'à 40 mm, queue non comprise.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Cheirodontops et l'espèce Cheirodontops geayi ont été décrits en 1944 par l'ichtyologiste américain Leonard Peter Schultz (d) (1901-1986)[2],[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Cheirodontops et l'espèce Cheirodontops geayi ont été décrits en 1944 par l'ichtyologiste américain Leonard Peter Schultz (d) (1901-1986),.
 </t>
         </is>
       </c>
@@ -605,10 +623,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, Cheirodontops, composé du genre Cheirodon et du grec ancien ὤψ, ốps, « œil ou face » (à comprendre comme « apparence »), fait probablement référence à la ressemblance de ce genre avec les espèces du genre Cheirodon dont il diffère toutefois sa ligne latérale complète[4].
-L'épithète spécifique, geayi, a été donnée en l'honneur du pharmacien et naturaliste français Martin François Geay (d) (1859–1910), à qui l'on doit l'ouvrage « Pêches dans les affluents de l'Orinoque » rédigé en 1896–1897[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, Cheirodontops, composé du genre Cheirodon et du grec ancien ὤψ, ốps, « œil ou face » (à comprendre comme « apparence »), fait probablement référence à la ressemblance de ce genre avec les espèces du genre Cheirodon dont il diffère toutefois sa ligne latérale complète.
+L'épithète spécifique, geayi, a été donnée en l'honneur du pharmacien et naturaliste français Martin François Geay (d) (1859–1910), à qui l'on doit l'ouvrage « Pêches dans les affluents de l'Orinoque » rédigé en 1896–1897.
 </t>
         </is>
       </c>
@@ -637,7 +657,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(en) Leonard P. Schultz, « The fishes of the family Characinidae from Venezuela, with descriptions of seventeen new forms », Proceedings of the United States National Museum, Washington, Inconnu, vol. 95, no 3181,‎ 6 septembre 1944, p. 235-367 (ISSN 0096-3801 et 2377-6560, OCLC 1259735, lire en ligne)</t>
         </is>
